--- a/ControlPanel/src/main/java/resources/TestCases1.xlsx
+++ b/ControlPanel/src/main/java/resources/TestCases1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -494,7 +494,9 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3">

--- a/ControlPanel/src/main/java/resources/TestCases1.xlsx
+++ b/ControlPanel/src/main/java/resources/TestCases1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>TestCase_ID</t>
   </si>

--- a/ControlPanel/src/main/java/resources/TestCases1.xlsx
+++ b/ControlPanel/src/main/java/resources/TestCases1.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14025" windowHeight="3780"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14970" windowHeight="6315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -33,41 +33,16 @@
     <t>TS_003</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>TS_005</t>
   </si>
   <si>
     <t>TS_006</t>
-  </si>
-  <si>
-    <t>TestCases</t>
-  </si>
-  <si>
-    <t>S.No</t>
-  </si>
-  <si>
-    <t>Test Steps</t>
-  </si>
-  <si>
-    <t>Actual Results</t>
-  </si>
-  <si>
-    <t>Expected Reults</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -419,154 +394,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.140625" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="13" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="13" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="3">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="3">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="J7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -576,12 +510,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
